--- a/xlsx/中华人民共和国_intext.xlsx
+++ b/xlsx/中华人民共和国_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4411">
   <si>
     <t>中华人民共和国</t>
   </si>
@@ -29,7 +29,7 @@
     <t>中华人民共和国国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_中华人民共和国</t>
+    <t>体育运动_体育运动_体育_中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%BE%BD</t>
@@ -11640,6 +11640,12 @@
   </si>
   <si>
     <t>中華人民共和國文化部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%B0%94%E6%BB%A8%E5%9C%B0%E5%9B%BE%E5%87%BA%E7%89%88%E7%A4%BE</t>
+  </si>
+  <si>
+    <t>哈尔滨地图出版社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%A4%A7%E5%AD%A6%E5%87%BA%E7%89%88%E7%A4%BE</t>
@@ -13590,7 +13596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2378"/>
+  <dimension ref="A1:I2379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73848,7 +73854,7 @@
         <v>3912</v>
       </c>
       <c r="G2078" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2078" t="s">
         <v>4</v>
@@ -73877,7 +73883,7 @@
         <v>3914</v>
       </c>
       <c r="G2079" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2079" t="s">
         <v>4</v>
@@ -73964,7 +73970,7 @@
         <v>3920</v>
       </c>
       <c r="G2082" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2082" t="s">
         <v>4</v>
@@ -73993,7 +73999,7 @@
         <v>3922</v>
       </c>
       <c r="G2083" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2083" t="s">
         <v>4</v>
@@ -74074,13 +74080,13 @@
         <v>2085</v>
       </c>
       <c r="E2086" t="s">
-        <v>315</v>
+        <v>3927</v>
       </c>
       <c r="F2086" t="s">
-        <v>316</v>
+        <v>3928</v>
       </c>
       <c r="G2086" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2086" t="s">
         <v>4</v>
@@ -74103,10 +74109,10 @@
         <v>2086</v>
       </c>
       <c r="E2087" t="s">
-        <v>3927</v>
+        <v>315</v>
       </c>
       <c r="F2087" t="s">
-        <v>3928</v>
+        <v>316</v>
       </c>
       <c r="G2087" t="n">
         <v>2</v>
@@ -74132,10 +74138,10 @@
         <v>2087</v>
       </c>
       <c r="E2088" t="s">
-        <v>917</v>
+        <v>3929</v>
       </c>
       <c r="F2088" t="s">
-        <v>918</v>
+        <v>3930</v>
       </c>
       <c r="G2088" t="n">
         <v>2</v>
@@ -74161,13 +74167,13 @@
         <v>2088</v>
       </c>
       <c r="E2089" t="s">
-        <v>3929</v>
+        <v>917</v>
       </c>
       <c r="F2089" t="s">
-        <v>3930</v>
+        <v>918</v>
       </c>
       <c r="G2089" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2089" t="s">
         <v>4</v>
@@ -74196,7 +74202,7 @@
         <v>3932</v>
       </c>
       <c r="G2090" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2090" t="s">
         <v>4</v>
@@ -74225,7 +74231,7 @@
         <v>3934</v>
       </c>
       <c r="G2091" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2091" t="s">
         <v>4</v>
@@ -74248,13 +74254,13 @@
         <v>2091</v>
       </c>
       <c r="E2092" t="s">
-        <v>333</v>
+        <v>3935</v>
       </c>
       <c r="F2092" t="s">
-        <v>334</v>
+        <v>3936</v>
       </c>
       <c r="G2092" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H2092" t="s">
         <v>4</v>
@@ -74277,13 +74283,13 @@
         <v>2092</v>
       </c>
       <c r="E2093" t="s">
-        <v>461</v>
+        <v>333</v>
       </c>
       <c r="F2093" t="s">
-        <v>462</v>
+        <v>334</v>
       </c>
       <c r="G2093" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H2093" t="s">
         <v>4</v>
@@ -74306,13 +74312,13 @@
         <v>2093</v>
       </c>
       <c r="E2094" t="s">
-        <v>315</v>
+        <v>461</v>
       </c>
       <c r="F2094" t="s">
-        <v>316</v>
+        <v>462</v>
       </c>
       <c r="G2094" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2094" t="s">
         <v>4</v>
@@ -74335,13 +74341,13 @@
         <v>2094</v>
       </c>
       <c r="E2095" t="s">
-        <v>3935</v>
+        <v>315</v>
       </c>
       <c r="F2095" t="s">
-        <v>3936</v>
+        <v>316</v>
       </c>
       <c r="G2095" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H2095" t="s">
         <v>4</v>
@@ -74370,7 +74376,7 @@
         <v>3938</v>
       </c>
       <c r="G2096" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H2096" t="s">
         <v>4</v>
@@ -74399,7 +74405,7 @@
         <v>3940</v>
       </c>
       <c r="G2097" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2097" t="s">
         <v>4</v>
@@ -74422,10 +74428,10 @@
         <v>2097</v>
       </c>
       <c r="E2098" t="s">
-        <v>191</v>
+        <v>3941</v>
       </c>
       <c r="F2098" t="s">
-        <v>192</v>
+        <v>3942</v>
       </c>
       <c r="G2098" t="n">
         <v>1</v>
@@ -74451,10 +74457,10 @@
         <v>2098</v>
       </c>
       <c r="E2099" t="s">
-        <v>3941</v>
+        <v>191</v>
       </c>
       <c r="F2099" t="s">
-        <v>3942</v>
+        <v>192</v>
       </c>
       <c r="G2099" t="n">
         <v>1</v>
@@ -74480,13 +74486,13 @@
         <v>2099</v>
       </c>
       <c r="E2100" t="s">
-        <v>1417</v>
+        <v>3943</v>
       </c>
       <c r="F2100" t="s">
-        <v>1418</v>
+        <v>3944</v>
       </c>
       <c r="G2100" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2100" t="s">
         <v>4</v>
@@ -74509,13 +74515,13 @@
         <v>2100</v>
       </c>
       <c r="E2101" t="s">
-        <v>3943</v>
+        <v>1417</v>
       </c>
       <c r="F2101" t="s">
-        <v>3944</v>
+        <v>1418</v>
       </c>
       <c r="G2101" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2101" t="s">
         <v>4</v>
@@ -74596,13 +74602,13 @@
         <v>2103</v>
       </c>
       <c r="E2104" t="s">
-        <v>1117</v>
+        <v>3949</v>
       </c>
       <c r="F2104" t="s">
-        <v>1118</v>
+        <v>3950</v>
       </c>
       <c r="G2104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2104" t="s">
         <v>4</v>
@@ -74625,13 +74631,13 @@
         <v>2104</v>
       </c>
       <c r="E2105" t="s">
-        <v>3949</v>
+        <v>1117</v>
       </c>
       <c r="F2105" t="s">
-        <v>3950</v>
+        <v>1118</v>
       </c>
       <c r="G2105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2105" t="s">
         <v>4</v>
@@ -74654,10 +74660,10 @@
         <v>2105</v>
       </c>
       <c r="E2106" t="s">
-        <v>1077</v>
+        <v>3951</v>
       </c>
       <c r="F2106" t="s">
-        <v>1078</v>
+        <v>3952</v>
       </c>
       <c r="G2106" t="n">
         <v>1</v>
@@ -74683,10 +74689,10 @@
         <v>2106</v>
       </c>
       <c r="E2107" t="s">
-        <v>3951</v>
+        <v>1077</v>
       </c>
       <c r="F2107" t="s">
-        <v>3952</v>
+        <v>1078</v>
       </c>
       <c r="G2107" t="n">
         <v>1</v>
@@ -74741,10 +74747,10 @@
         <v>2108</v>
       </c>
       <c r="E2109" t="s">
-        <v>1075</v>
+        <v>3955</v>
       </c>
       <c r="F2109" t="s">
-        <v>1076</v>
+        <v>3956</v>
       </c>
       <c r="G2109" t="n">
         <v>1</v>
@@ -74770,13 +74776,13 @@
         <v>2109</v>
       </c>
       <c r="E2110" t="s">
-        <v>3955</v>
+        <v>1075</v>
       </c>
       <c r="F2110" t="s">
-        <v>3956</v>
+        <v>1076</v>
       </c>
       <c r="G2110" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H2110" t="s">
         <v>4</v>
@@ -74805,7 +74811,7 @@
         <v>3958</v>
       </c>
       <c r="G2111" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="H2111" t="s">
         <v>4</v>
@@ -74834,7 +74840,7 @@
         <v>3960</v>
       </c>
       <c r="G2112" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="H2112" t="s">
         <v>4</v>
@@ -74863,7 +74869,7 @@
         <v>3962</v>
       </c>
       <c r="G2113" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="H2113" t="s">
         <v>4</v>
@@ -74892,7 +74898,7 @@
         <v>3964</v>
       </c>
       <c r="G2114" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="H2114" t="s">
         <v>4</v>
@@ -74915,10 +74921,10 @@
         <v>2114</v>
       </c>
       <c r="E2115" t="s">
-        <v>3247</v>
+        <v>3965</v>
       </c>
       <c r="F2115" t="s">
-        <v>3248</v>
+        <v>3966</v>
       </c>
       <c r="G2115" t="n">
         <v>1</v>
@@ -74944,13 +74950,13 @@
         <v>2115</v>
       </c>
       <c r="E2116" t="s">
-        <v>3965</v>
+        <v>3247</v>
       </c>
       <c r="F2116" t="s">
-        <v>3966</v>
+        <v>3248</v>
       </c>
       <c r="G2116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2116" t="s">
         <v>4</v>
@@ -74979,7 +74985,7 @@
         <v>3968</v>
       </c>
       <c r="G2117" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H2117" t="s">
         <v>4</v>
@@ -75002,13 +75008,13 @@
         <v>2117</v>
       </c>
       <c r="E2118" t="s">
-        <v>3255</v>
+        <v>3969</v>
       </c>
       <c r="F2118" t="s">
-        <v>3256</v>
+        <v>3970</v>
       </c>
       <c r="G2118" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H2118" t="s">
         <v>4</v>
@@ -75031,13 +75037,13 @@
         <v>2118</v>
       </c>
       <c r="E2119" t="s">
-        <v>3969</v>
+        <v>3255</v>
       </c>
       <c r="F2119" t="s">
-        <v>3970</v>
+        <v>3256</v>
       </c>
       <c r="G2119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2119" t="s">
         <v>4</v>
@@ -75089,13 +75095,13 @@
         <v>2120</v>
       </c>
       <c r="E2121" t="s">
-        <v>301</v>
+        <v>3973</v>
       </c>
       <c r="F2121" t="s">
-        <v>302</v>
+        <v>3974</v>
       </c>
       <c r="G2121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2121" t="s">
         <v>4</v>
@@ -75118,13 +75124,13 @@
         <v>2121</v>
       </c>
       <c r="E2122" t="s">
-        <v>3973</v>
+        <v>301</v>
       </c>
       <c r="F2122" t="s">
-        <v>3974</v>
+        <v>302</v>
       </c>
       <c r="G2122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2122" t="s">
         <v>4</v>
@@ -75182,7 +75188,7 @@
         <v>3978</v>
       </c>
       <c r="G2124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2124" t="s">
         <v>4</v>
@@ -75211,7 +75217,7 @@
         <v>3980</v>
       </c>
       <c r="G2125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2125" t="s">
         <v>4</v>
@@ -75240,7 +75246,7 @@
         <v>3982</v>
       </c>
       <c r="G2126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2126" t="s">
         <v>4</v>
@@ -75263,13 +75269,13 @@
         <v>2126</v>
       </c>
       <c r="E2127" t="s">
-        <v>1217</v>
+        <v>3983</v>
       </c>
       <c r="F2127" t="s">
-        <v>1218</v>
+        <v>3984</v>
       </c>
       <c r="G2127" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2127" t="s">
         <v>4</v>
@@ -75292,13 +75298,13 @@
         <v>2127</v>
       </c>
       <c r="E2128" t="s">
-        <v>217</v>
+        <v>1217</v>
       </c>
       <c r="F2128" t="s">
-        <v>218</v>
+        <v>1218</v>
       </c>
       <c r="G2128" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="H2128" t="s">
         <v>4</v>
@@ -75321,13 +75327,13 @@
         <v>2128</v>
       </c>
       <c r="E2129" t="s">
-        <v>3983</v>
+        <v>217</v>
       </c>
       <c r="F2129" t="s">
-        <v>3984</v>
+        <v>218</v>
       </c>
       <c r="G2129" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="H2129" t="s">
         <v>4</v>
@@ -75356,7 +75362,7 @@
         <v>3986</v>
       </c>
       <c r="G2130" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2130" t="s">
         <v>4</v>
@@ -75379,10 +75385,10 @@
         <v>2130</v>
       </c>
       <c r="E2131" t="s">
-        <v>1219</v>
+        <v>3987</v>
       </c>
       <c r="F2131" t="s">
-        <v>1220</v>
+        <v>3988</v>
       </c>
       <c r="G2131" t="n">
         <v>4</v>
@@ -75408,13 +75414,13 @@
         <v>2131</v>
       </c>
       <c r="E2132" t="s">
-        <v>3987</v>
+        <v>1219</v>
       </c>
       <c r="F2132" t="s">
-        <v>3988</v>
+        <v>1220</v>
       </c>
       <c r="G2132" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2132" t="s">
         <v>4</v>
@@ -75437,13 +75443,13 @@
         <v>2132</v>
       </c>
       <c r="E2133" t="s">
-        <v>1399</v>
+        <v>3989</v>
       </c>
       <c r="F2133" t="s">
-        <v>1400</v>
+        <v>3990</v>
       </c>
       <c r="G2133" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2133" t="s">
         <v>4</v>
@@ -75466,13 +75472,13 @@
         <v>2133</v>
       </c>
       <c r="E2134" t="s">
-        <v>3989</v>
+        <v>1399</v>
       </c>
       <c r="F2134" t="s">
-        <v>3990</v>
+        <v>1400</v>
       </c>
       <c r="G2134" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2134" t="s">
         <v>4</v>
@@ -75495,10 +75501,10 @@
         <v>2134</v>
       </c>
       <c r="E2135" t="s">
-        <v>275</v>
+        <v>3991</v>
       </c>
       <c r="F2135" t="s">
-        <v>276</v>
+        <v>3992</v>
       </c>
       <c r="G2135" t="n">
         <v>6</v>
@@ -75524,13 +75530,13 @@
         <v>2135</v>
       </c>
       <c r="E2136" t="s">
-        <v>3991</v>
+        <v>275</v>
       </c>
       <c r="F2136" t="s">
-        <v>3992</v>
+        <v>276</v>
       </c>
       <c r="G2136" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H2136" t="s">
         <v>4</v>
@@ -75553,13 +75559,13 @@
         <v>2136</v>
       </c>
       <c r="E2137" t="s">
-        <v>1313</v>
+        <v>3993</v>
       </c>
       <c r="F2137" t="s">
-        <v>1314</v>
+        <v>3994</v>
       </c>
       <c r="G2137" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H2137" t="s">
         <v>4</v>
@@ -75582,13 +75588,13 @@
         <v>2137</v>
       </c>
       <c r="E2138" t="s">
-        <v>3993</v>
+        <v>1313</v>
       </c>
       <c r="F2138" t="s">
-        <v>3994</v>
+        <v>1314</v>
       </c>
       <c r="G2138" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H2138" t="s">
         <v>4</v>
@@ -75646,7 +75652,7 @@
         <v>3998</v>
       </c>
       <c r="G2140" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2140" t="s">
         <v>4</v>
@@ -75675,7 +75681,7 @@
         <v>4000</v>
       </c>
       <c r="G2141" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H2141" t="s">
         <v>4</v>
@@ -75698,13 +75704,13 @@
         <v>2141</v>
       </c>
       <c r="E2142" t="s">
-        <v>1327</v>
+        <v>4001</v>
       </c>
       <c r="F2142" t="s">
-        <v>1328</v>
+        <v>4002</v>
       </c>
       <c r="G2142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2142" t="s">
         <v>4</v>
@@ -75727,13 +75733,13 @@
         <v>2142</v>
       </c>
       <c r="E2143" t="s">
-        <v>4001</v>
+        <v>1327</v>
       </c>
       <c r="F2143" t="s">
-        <v>4002</v>
+        <v>1328</v>
       </c>
       <c r="G2143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2143" t="s">
         <v>4</v>
@@ -75814,10 +75820,10 @@
         <v>2145</v>
       </c>
       <c r="E2146" t="s">
-        <v>2011</v>
+        <v>4007</v>
       </c>
       <c r="F2146" t="s">
-        <v>2012</v>
+        <v>4008</v>
       </c>
       <c r="G2146" t="n">
         <v>1</v>
@@ -75843,13 +75849,13 @@
         <v>2146</v>
       </c>
       <c r="E2147" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="F2147" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G2147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2147" t="s">
         <v>4</v>
@@ -75872,13 +75878,13 @@
         <v>2147</v>
       </c>
       <c r="E2148" t="s">
-        <v>3037</v>
+        <v>2013</v>
       </c>
       <c r="F2148" t="s">
-        <v>3038</v>
+        <v>2014</v>
       </c>
       <c r="G2148" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H2148" t="s">
         <v>4</v>
@@ -75901,13 +75907,13 @@
         <v>2148</v>
       </c>
       <c r="E2149" t="s">
-        <v>4007</v>
+        <v>3037</v>
       </c>
       <c r="F2149" t="s">
-        <v>4008</v>
+        <v>3038</v>
       </c>
       <c r="G2149" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H2149" t="s">
         <v>4</v>
@@ -75965,7 +75971,7 @@
         <v>4012</v>
       </c>
       <c r="G2151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2151" t="s">
         <v>4</v>
@@ -75988,13 +75994,13 @@
         <v>2151</v>
       </c>
       <c r="E2152" t="s">
-        <v>2169</v>
+        <v>4013</v>
       </c>
       <c r="F2152" t="s">
-        <v>2170</v>
+        <v>4014</v>
       </c>
       <c r="G2152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2152" t="s">
         <v>4</v>
@@ -76017,10 +76023,10 @@
         <v>2152</v>
       </c>
       <c r="E2153" t="s">
-        <v>4013</v>
+        <v>2169</v>
       </c>
       <c r="F2153" t="s">
-        <v>4014</v>
+        <v>2170</v>
       </c>
       <c r="G2153" t="n">
         <v>1</v>
@@ -76075,13 +76081,13 @@
         <v>2154</v>
       </c>
       <c r="E2155" t="s">
-        <v>2315</v>
+        <v>4017</v>
       </c>
       <c r="F2155" t="s">
-        <v>2316</v>
+        <v>4018</v>
       </c>
       <c r="G2155" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H2155" t="s">
         <v>4</v>
@@ -76104,13 +76110,13 @@
         <v>2155</v>
       </c>
       <c r="E2156" t="s">
-        <v>4017</v>
+        <v>2315</v>
       </c>
       <c r="F2156" t="s">
-        <v>4018</v>
+        <v>2316</v>
       </c>
       <c r="G2156" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H2156" t="s">
         <v>4</v>
@@ -76139,7 +76145,7 @@
         <v>4020</v>
       </c>
       <c r="G2157" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H2157" t="s">
         <v>4</v>
@@ -76162,13 +76168,13 @@
         <v>2157</v>
       </c>
       <c r="E2158" t="s">
-        <v>2363</v>
+        <v>4021</v>
       </c>
       <c r="F2158" t="s">
-        <v>2364</v>
+        <v>4022</v>
       </c>
       <c r="G2158" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H2158" t="s">
         <v>4</v>
@@ -76191,13 +76197,13 @@
         <v>2158</v>
       </c>
       <c r="E2159" t="s">
-        <v>255</v>
+        <v>2363</v>
       </c>
       <c r="F2159" t="s">
-        <v>256</v>
+        <v>2364</v>
       </c>
       <c r="G2159" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H2159" t="s">
         <v>4</v>
@@ -76220,13 +76226,13 @@
         <v>2159</v>
       </c>
       <c r="E2160" t="s">
-        <v>3225</v>
+        <v>255</v>
       </c>
       <c r="F2160" t="s">
-        <v>3226</v>
+        <v>256</v>
       </c>
       <c r="G2160" t="n">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="H2160" t="s">
         <v>4</v>
@@ -76249,13 +76255,13 @@
         <v>2160</v>
       </c>
       <c r="E2161" t="s">
-        <v>4021</v>
+        <v>3225</v>
       </c>
       <c r="F2161" t="s">
-        <v>4022</v>
+        <v>3226</v>
       </c>
       <c r="G2161" t="n">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="H2161" t="s">
         <v>4</v>
@@ -76278,13 +76284,13 @@
         <v>2161</v>
       </c>
       <c r="E2162" t="s">
-        <v>807</v>
+        <v>4023</v>
       </c>
       <c r="F2162" t="s">
-        <v>808</v>
+        <v>4024</v>
       </c>
       <c r="G2162" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2162" t="s">
         <v>4</v>
@@ -76307,13 +76313,13 @@
         <v>2162</v>
       </c>
       <c r="E2163" t="s">
-        <v>4023</v>
+        <v>807</v>
       </c>
       <c r="F2163" t="s">
-        <v>4024</v>
+        <v>808</v>
       </c>
       <c r="G2163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2163" t="s">
         <v>4</v>
@@ -76342,7 +76348,7 @@
         <v>4026</v>
       </c>
       <c r="G2164" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2164" t="s">
         <v>4</v>
@@ -76365,13 +76371,13 @@
         <v>2164</v>
       </c>
       <c r="E2165" t="s">
-        <v>37</v>
+        <v>4027</v>
       </c>
       <c r="F2165" t="s">
-        <v>38</v>
+        <v>4028</v>
       </c>
       <c r="G2165" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H2165" t="s">
         <v>4</v>
@@ -76394,13 +76400,13 @@
         <v>2165</v>
       </c>
       <c r="E2166" t="s">
-        <v>4027</v>
+        <v>37</v>
       </c>
       <c r="F2166" t="s">
-        <v>4028</v>
+        <v>38</v>
       </c>
       <c r="G2166" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="H2166" t="s">
         <v>4</v>
@@ -76458,7 +76464,7 @@
         <v>4032</v>
       </c>
       <c r="G2168" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2168" t="s">
         <v>4</v>
@@ -76487,7 +76493,7 @@
         <v>4034</v>
       </c>
       <c r="G2169" t="n">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="H2169" t="s">
         <v>4</v>
@@ -76510,13 +76516,13 @@
         <v>2169</v>
       </c>
       <c r="E2170" t="s">
-        <v>2761</v>
+        <v>4035</v>
       </c>
       <c r="F2170" t="s">
-        <v>2762</v>
+        <v>4036</v>
       </c>
       <c r="G2170" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="H2170" t="s">
         <v>4</v>
@@ -76539,13 +76545,13 @@
         <v>2170</v>
       </c>
       <c r="E2171" t="s">
-        <v>4035</v>
+        <v>2761</v>
       </c>
       <c r="F2171" t="s">
-        <v>4036</v>
+        <v>2762</v>
       </c>
       <c r="G2171" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2171" t="s">
         <v>4</v>
@@ -76574,7 +76580,7 @@
         <v>4038</v>
       </c>
       <c r="G2172" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2172" t="s">
         <v>4</v>
@@ -76597,13 +76603,13 @@
         <v>2172</v>
       </c>
       <c r="E2173" t="s">
-        <v>2783</v>
+        <v>4039</v>
       </c>
       <c r="F2173" t="s">
-        <v>2784</v>
+        <v>4040</v>
       </c>
       <c r="G2173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2173" t="s">
         <v>4</v>
@@ -76626,13 +76632,13 @@
         <v>2173</v>
       </c>
       <c r="E2174" t="s">
-        <v>2521</v>
+        <v>2783</v>
       </c>
       <c r="F2174" t="s">
-        <v>2522</v>
+        <v>2784</v>
       </c>
       <c r="G2174" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="H2174" t="s">
         <v>4</v>
@@ -76655,13 +76661,13 @@
         <v>2174</v>
       </c>
       <c r="E2175" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="F2175" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="G2175" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="H2175" t="s">
         <v>4</v>
@@ -76684,13 +76690,13 @@
         <v>2175</v>
       </c>
       <c r="E2176" t="s">
-        <v>4039</v>
+        <v>2523</v>
       </c>
       <c r="F2176" t="s">
-        <v>4040</v>
+        <v>2524</v>
       </c>
       <c r="G2176" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2176" t="s">
         <v>4</v>
@@ -76713,13 +76719,13 @@
         <v>2176</v>
       </c>
       <c r="E2177" t="s">
-        <v>2661</v>
+        <v>4041</v>
       </c>
       <c r="F2177" t="s">
-        <v>2662</v>
+        <v>4042</v>
       </c>
       <c r="G2177" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2177" t="s">
         <v>4</v>
@@ -76742,13 +76748,13 @@
         <v>2177</v>
       </c>
       <c r="E2178" t="s">
-        <v>2669</v>
+        <v>2661</v>
       </c>
       <c r="F2178" t="s">
-        <v>2670</v>
+        <v>2662</v>
       </c>
       <c r="G2178" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2178" t="s">
         <v>4</v>
@@ -76771,10 +76777,10 @@
         <v>2178</v>
       </c>
       <c r="E2179" t="s">
-        <v>2039</v>
+        <v>2669</v>
       </c>
       <c r="F2179" t="s">
-        <v>2040</v>
+        <v>2670</v>
       </c>
       <c r="G2179" t="n">
         <v>1</v>
@@ -76800,10 +76806,10 @@
         <v>2179</v>
       </c>
       <c r="E2180" t="s">
-        <v>4041</v>
+        <v>2039</v>
       </c>
       <c r="F2180" t="s">
-        <v>4042</v>
+        <v>2040</v>
       </c>
       <c r="G2180" t="n">
         <v>1</v>
@@ -76858,13 +76864,13 @@
         <v>2181</v>
       </c>
       <c r="E2182" t="s">
-        <v>467</v>
+        <v>4045</v>
       </c>
       <c r="F2182" t="s">
-        <v>468</v>
+        <v>4046</v>
       </c>
       <c r="G2182" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2182" t="s">
         <v>4</v>
@@ -76887,13 +76893,13 @@
         <v>2182</v>
       </c>
       <c r="E2183" t="s">
-        <v>3167</v>
+        <v>467</v>
       </c>
       <c r="F2183" t="s">
-        <v>3168</v>
+        <v>468</v>
       </c>
       <c r="G2183" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H2183" t="s">
         <v>4</v>
@@ -76916,13 +76922,13 @@
         <v>2183</v>
       </c>
       <c r="E2184" t="s">
-        <v>4045</v>
+        <v>3167</v>
       </c>
       <c r="F2184" t="s">
-        <v>4046</v>
+        <v>3168</v>
       </c>
       <c r="G2184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2184" t="s">
         <v>4</v>
@@ -76951,7 +76957,7 @@
         <v>4048</v>
       </c>
       <c r="G2185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2185" t="s">
         <v>4</v>
@@ -76974,13 +76980,13 @@
         <v>2185</v>
       </c>
       <c r="E2186" t="s">
-        <v>2639</v>
+        <v>4049</v>
       </c>
       <c r="F2186" t="s">
-        <v>2640</v>
+        <v>4050</v>
       </c>
       <c r="G2186" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2186" t="s">
         <v>4</v>
@@ -77003,13 +77009,13 @@
         <v>2186</v>
       </c>
       <c r="E2187" t="s">
-        <v>121</v>
+        <v>2639</v>
       </c>
       <c r="F2187" t="s">
-        <v>122</v>
+        <v>2640</v>
       </c>
       <c r="G2187" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2187" t="s">
         <v>4</v>
@@ -77032,13 +77038,13 @@
         <v>2187</v>
       </c>
       <c r="E2188" t="s">
-        <v>4049</v>
+        <v>121</v>
       </c>
       <c r="F2188" t="s">
-        <v>4050</v>
+        <v>122</v>
       </c>
       <c r="G2188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2188" t="s">
         <v>4</v>
@@ -77067,7 +77073,7 @@
         <v>4052</v>
       </c>
       <c r="G2189" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H2189" t="s">
         <v>4</v>
@@ -77090,13 +77096,13 @@
         <v>2189</v>
       </c>
       <c r="E2190" t="s">
-        <v>469</v>
+        <v>4053</v>
       </c>
       <c r="F2190" t="s">
-        <v>470</v>
+        <v>4054</v>
       </c>
       <c r="G2190" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H2190" t="s">
         <v>4</v>
@@ -77119,13 +77125,13 @@
         <v>2190</v>
       </c>
       <c r="E2191" t="s">
-        <v>4053</v>
+        <v>469</v>
       </c>
       <c r="F2191" t="s">
-        <v>4054</v>
+        <v>470</v>
       </c>
       <c r="G2191" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H2191" t="s">
         <v>4</v>
@@ -77154,7 +77160,7 @@
         <v>4056</v>
       </c>
       <c r="G2192" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H2192" t="s">
         <v>4</v>
@@ -77183,7 +77189,7 @@
         <v>4058</v>
       </c>
       <c r="G2193" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H2193" t="s">
         <v>4</v>
@@ -77206,13 +77212,13 @@
         <v>2193</v>
       </c>
       <c r="E2194" t="s">
-        <v>2695</v>
+        <v>4059</v>
       </c>
       <c r="F2194" t="s">
-        <v>2696</v>
+        <v>4060</v>
       </c>
       <c r="G2194" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H2194" t="s">
         <v>4</v>
@@ -77235,13 +77241,13 @@
         <v>2194</v>
       </c>
       <c r="E2195" t="s">
-        <v>4059</v>
+        <v>2695</v>
       </c>
       <c r="F2195" t="s">
-        <v>4060</v>
+        <v>2696</v>
       </c>
       <c r="G2195" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H2195" t="s">
         <v>4</v>
@@ -77270,7 +77276,7 @@
         <v>4062</v>
       </c>
       <c r="G2196" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2196" t="s">
         <v>4</v>
@@ -77299,7 +77305,7 @@
         <v>4064</v>
       </c>
       <c r="G2197" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2197" t="s">
         <v>4</v>
@@ -77351,13 +77357,13 @@
         <v>2198</v>
       </c>
       <c r="E2199" t="s">
-        <v>3091</v>
+        <v>4067</v>
       </c>
       <c r="F2199" t="s">
-        <v>3092</v>
+        <v>4068</v>
       </c>
       <c r="G2199" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H2199" t="s">
         <v>4</v>
@@ -77380,13 +77386,13 @@
         <v>2199</v>
       </c>
       <c r="E2200" t="s">
-        <v>4067</v>
+        <v>3091</v>
       </c>
       <c r="F2200" t="s">
-        <v>4068</v>
+        <v>3092</v>
       </c>
       <c r="G2200" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H2200" t="s">
         <v>4</v>
@@ -77531,7 +77537,7 @@
         <v>4078</v>
       </c>
       <c r="G2205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2205" t="s">
         <v>4</v>
@@ -77589,7 +77595,7 @@
         <v>4082</v>
       </c>
       <c r="G2207" t="n">
-        <v>187</v>
+        <v>2</v>
       </c>
       <c r="H2207" t="s">
         <v>4</v>
@@ -77618,7 +77624,7 @@
         <v>4084</v>
       </c>
       <c r="G2208" t="n">
-        <v>3</v>
+        <v>187</v>
       </c>
       <c r="H2208" t="s">
         <v>4</v>
@@ -77641,13 +77647,13 @@
         <v>2208</v>
       </c>
       <c r="E2209" t="s">
-        <v>653</v>
+        <v>4085</v>
       </c>
       <c r="F2209" t="s">
-        <v>654</v>
+        <v>4086</v>
       </c>
       <c r="G2209" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2209" t="s">
         <v>4</v>
@@ -77699,13 +77705,13 @@
         <v>2210</v>
       </c>
       <c r="E2211" t="s">
-        <v>4085</v>
+        <v>653</v>
       </c>
       <c r="F2211" t="s">
-        <v>4086</v>
+        <v>654</v>
       </c>
       <c r="G2211" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H2211" t="s">
         <v>4</v>
@@ -77734,7 +77740,7 @@
         <v>4088</v>
       </c>
       <c r="G2212" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H2212" t="s">
         <v>4</v>
@@ -77763,7 +77769,7 @@
         <v>4090</v>
       </c>
       <c r="G2213" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H2213" t="s">
         <v>4</v>
@@ -77786,13 +77792,13 @@
         <v>2213</v>
       </c>
       <c r="E2214" t="s">
-        <v>1547</v>
+        <v>4091</v>
       </c>
       <c r="F2214" t="s">
-        <v>1548</v>
+        <v>4092</v>
       </c>
       <c r="G2214" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H2214" t="s">
         <v>4</v>
@@ -77815,13 +77821,13 @@
         <v>2214</v>
       </c>
       <c r="E2215" t="s">
-        <v>4091</v>
+        <v>1547</v>
       </c>
       <c r="F2215" t="s">
-        <v>4092</v>
+        <v>1548</v>
       </c>
       <c r="G2215" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2215" t="s">
         <v>4</v>
@@ -77850,7 +77856,7 @@
         <v>4094</v>
       </c>
       <c r="G2216" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2216" t="s">
         <v>4</v>
@@ -77879,7 +77885,7 @@
         <v>4096</v>
       </c>
       <c r="G2217" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H2217" t="s">
         <v>4</v>
@@ -77908,7 +77914,7 @@
         <v>4098</v>
       </c>
       <c r="G2218" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H2218" t="s">
         <v>4</v>
@@ -77995,7 +78001,7 @@
         <v>4104</v>
       </c>
       <c r="G2221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2221" t="s">
         <v>4</v>
@@ -78024,7 +78030,7 @@
         <v>4106</v>
       </c>
       <c r="G2222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2222" t="s">
         <v>4</v>
@@ -78163,10 +78169,10 @@
         <v>2226</v>
       </c>
       <c r="E2227" t="s">
-        <v>623</v>
+        <v>4115</v>
       </c>
       <c r="F2227" t="s">
-        <v>624</v>
+        <v>4116</v>
       </c>
       <c r="G2227" t="n">
         <v>1</v>
@@ -78192,10 +78198,10 @@
         <v>2227</v>
       </c>
       <c r="E2228" t="s">
-        <v>4115</v>
+        <v>623</v>
       </c>
       <c r="F2228" t="s">
-        <v>4116</v>
+        <v>624</v>
       </c>
       <c r="G2228" t="n">
         <v>1</v>
@@ -78366,13 +78372,13 @@
         <v>2233</v>
       </c>
       <c r="E2234" t="s">
-        <v>3277</v>
+        <v>4127</v>
       </c>
       <c r="F2234" t="s">
-        <v>3278</v>
+        <v>4128</v>
       </c>
       <c r="G2234" t="n">
-        <v>319</v>
+        <v>1</v>
       </c>
       <c r="H2234" t="s">
         <v>4</v>
@@ -78395,13 +78401,13 @@
         <v>2234</v>
       </c>
       <c r="E2235" t="s">
-        <v>4127</v>
+        <v>3277</v>
       </c>
       <c r="F2235" t="s">
-        <v>4128</v>
+        <v>3278</v>
       </c>
       <c r="G2235" t="n">
-        <v>24</v>
+        <v>319</v>
       </c>
       <c r="H2235" t="s">
         <v>4</v>
@@ -78424,13 +78430,13 @@
         <v>2235</v>
       </c>
       <c r="E2236" t="s">
-        <v>935</v>
+        <v>4129</v>
       </c>
       <c r="F2236" t="s">
-        <v>936</v>
+        <v>4130</v>
       </c>
       <c r="G2236" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H2236" t="s">
         <v>4</v>
@@ -78453,10 +78459,10 @@
         <v>2236</v>
       </c>
       <c r="E2237" t="s">
-        <v>4129</v>
+        <v>935</v>
       </c>
       <c r="F2237" t="s">
-        <v>4130</v>
+        <v>936</v>
       </c>
       <c r="G2237" t="n">
         <v>4</v>
@@ -78488,7 +78494,7 @@
         <v>4132</v>
       </c>
       <c r="G2238" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H2238" t="s">
         <v>4</v>
@@ -78575,7 +78581,7 @@
         <v>4138</v>
       </c>
       <c r="G2241" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2241" t="s">
         <v>4</v>
@@ -78604,7 +78610,7 @@
         <v>4140</v>
       </c>
       <c r="G2242" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2242" t="s">
         <v>4</v>
@@ -78633,7 +78639,7 @@
         <v>4142</v>
       </c>
       <c r="G2243" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H2243" t="s">
         <v>4</v>
@@ -79329,7 +79335,7 @@
         <v>4190</v>
       </c>
       <c r="G2267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2267" t="s">
         <v>4</v>
@@ -79358,7 +79364,7 @@
         <v>4192</v>
       </c>
       <c r="G2268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2268" t="s">
         <v>4</v>
@@ -79967,7 +79973,7 @@
         <v>4234</v>
       </c>
       <c r="G2289" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2289" t="s">
         <v>4</v>
@@ -79996,7 +80002,7 @@
         <v>4236</v>
       </c>
       <c r="G2290" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2290" t="s">
         <v>4</v>
@@ -80576,7 +80582,7 @@
         <v>4276</v>
       </c>
       <c r="G2310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2310" t="s">
         <v>4</v>
@@ -80634,7 +80640,7 @@
         <v>4280</v>
       </c>
       <c r="G2312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2312" t="s">
         <v>4</v>
@@ -80692,7 +80698,7 @@
         <v>4284</v>
       </c>
       <c r="G2314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2314" t="s">
         <v>4</v>
@@ -80721,7 +80727,7 @@
         <v>4286</v>
       </c>
       <c r="G2315" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="H2315" t="s">
         <v>4</v>
@@ -80750,7 +80756,7 @@
         <v>4288</v>
       </c>
       <c r="G2316" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H2316" t="s">
         <v>4</v>
@@ -80808,7 +80814,7 @@
         <v>4292</v>
       </c>
       <c r="G2318" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2318" t="s">
         <v>4</v>
@@ -80837,7 +80843,7 @@
         <v>4294</v>
       </c>
       <c r="G2319" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2319" t="s">
         <v>4</v>
@@ -80924,7 +80930,7 @@
         <v>4300</v>
       </c>
       <c r="G2322" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H2322" t="s">
         <v>4</v>
@@ -80953,7 +80959,7 @@
         <v>4302</v>
       </c>
       <c r="G2323" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H2323" t="s">
         <v>4</v>
@@ -81098,7 +81104,7 @@
         <v>4312</v>
       </c>
       <c r="G2328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2328" t="s">
         <v>4</v>
@@ -81127,7 +81133,7 @@
         <v>4314</v>
       </c>
       <c r="G2329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2329" t="s">
         <v>4</v>
@@ -81150,10 +81156,10 @@
         <v>2329</v>
       </c>
       <c r="E2330" t="s">
-        <v>4129</v>
+        <v>4315</v>
       </c>
       <c r="F2330" t="s">
-        <v>4130</v>
+        <v>4316</v>
       </c>
       <c r="G2330" t="n">
         <v>1</v>
@@ -81179,10 +81185,10 @@
         <v>2330</v>
       </c>
       <c r="E2331" t="s">
-        <v>4315</v>
+        <v>4131</v>
       </c>
       <c r="F2331" t="s">
-        <v>4316</v>
+        <v>4132</v>
       </c>
       <c r="G2331" t="n">
         <v>1</v>
@@ -81881,7 +81887,7 @@
         <v>4364</v>
       </c>
       <c r="G2355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2355" t="s">
         <v>4</v>
@@ -81910,7 +81916,7 @@
         <v>4366</v>
       </c>
       <c r="G2356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2356" t="s">
         <v>4</v>
@@ -81968,7 +81974,7 @@
         <v>4370</v>
       </c>
       <c r="G2358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2358" t="s">
         <v>4</v>
@@ -81997,7 +82003,7 @@
         <v>4372</v>
       </c>
       <c r="G2359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2359" t="s">
         <v>4</v>
@@ -82084,7 +82090,7 @@
         <v>4378</v>
       </c>
       <c r="G2362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2362" t="s">
         <v>4</v>
@@ -82171,7 +82177,7 @@
         <v>4384</v>
       </c>
       <c r="G2365" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2365" t="s">
         <v>4</v>
@@ -82310,10 +82316,10 @@
         <v>2369</v>
       </c>
       <c r="E2370" t="s">
-        <v>3225</v>
+        <v>4393</v>
       </c>
       <c r="F2370" t="s">
-        <v>3226</v>
+        <v>4394</v>
       </c>
       <c r="G2370" t="n">
         <v>1</v>
@@ -82339,10 +82345,10 @@
         <v>2370</v>
       </c>
       <c r="E2371" t="s">
-        <v>4393</v>
+        <v>3225</v>
       </c>
       <c r="F2371" t="s">
-        <v>4394</v>
+        <v>3226</v>
       </c>
       <c r="G2371" t="n">
         <v>1</v>
@@ -82403,7 +82409,7 @@
         <v>4398</v>
       </c>
       <c r="G2373" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H2373" t="s">
         <v>4</v>
@@ -82432,7 +82438,7 @@
         <v>4400</v>
       </c>
       <c r="G2374" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2374" t="s">
         <v>4</v>
@@ -82548,12 +82554,41 @@
         <v>4408</v>
       </c>
       <c r="G2378" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2378" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2378" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:9">
+      <c r="A2379" s="1" t="n">
+        <v>2377</v>
+      </c>
+      <c r="B2379" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2379" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2379" t="n">
+        <v>2378</v>
+      </c>
+      <c r="E2379" t="s">
+        <v>4409</v>
+      </c>
+      <c r="F2379" t="s">
+        <v>4410</v>
+      </c>
+      <c r="G2379" t="n">
         <v>2</v>
       </c>
-      <c r="H2378" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2378" t="n">
+      <c r="H2379" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2379" t="n">
         <v>3</v>
       </c>
     </row>
